--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\project06\2. 기능정리 취합\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>현태</t>
   </si>
@@ -261,15 +266,119 @@
     <t>관리자</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>메인 진입 화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 진입 화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 계정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/로그아웃, 회원가입, 알림
+프로젝트 검색, 카테고리별 프로젝트 리스트, 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트, 마감 직전 프로젝트, 펀딩 성공 프로젝트, 리워드 펀딩 성공 판매상품</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호 입력 로그인
+네이버, 카카오톡, 구글 간편로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네이버, 카카오톡, 구글 간편 회원가입
+아이디 중복확인, 비밀번호 재입력, 이름, 전화번호,이메일 등의 개인정보 입력 후 가입
+관심카테고리 설정
+이메일 주소, 이름, 비밀번호만으로 회원가입  간편 회원가입
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 시 이용한 이름, 이메일을 통해서 아이디 찾기
+이름, 이메일을 입력하여 아이디를 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 시 이용한 이름, 이메일, 아이디, 휴대폰번호를 이용하여 비밀번호 찾기
+아이디, 이메일을 입력하여 비밀번호 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 계좌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 펀딩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 내 프로필 수정을 통해 변경 가능
+회원가입시 입력한 정보를 수정하고 탈퇴하는 기능
+관심 카테고리 설정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 페이지 내 회원탈퇴 버튼을 통해 탈퇴 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익금 정산 받을 계좌 등록 및 수정
+예치금 충전 및 이용내역</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩한 프로젝트의 목록, 진행상태 확인
+관심 프로젝트 목록 및 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 샵에서 구매한 상품의 주문/배송 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -350,13 +459,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -407,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -561,30 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -679,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,19 +780,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,132 +804,117 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,32 +1130,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="111.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1135,22 +1192,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1170,22 +1227,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1">
+    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1318,7 +1375,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1333,13 +1390,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1373,33 +1430,37 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20">
-        <v>43854</v>
+    <row r="8" spans="1:33" ht="49.2" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>50</v>
       </c>
-      <c r="H8" s="20">
-        <v>43858</v>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
       </c>
-      <c r="I8" s="20">
-        <v>43859</v>
+      <c r="C8" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="J8" s="20">
-        <v>43860</v>
+      <c r="D8" s="25" t="s">
+        <v>57</v>
       </c>
-      <c r="K8" s="20">
-        <v>43861</v>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="10">
+        <v>1</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="O8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1418,29 +1479,33 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>50</v>
+    <row r="9" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="40" t="s">
+        <v>54</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="12">
+      <c r="C9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10">
         <v>1</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="1"/>
@@ -1461,28 +1526,32 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+    <row r="10" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="26"/>
-      <c r="N10" s="12">
-        <v>1</v>
+      <c r="N10" s="16">
+        <v>2</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>24</v>
+      <c r="O10" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>25</v>
+      <c r="P10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1502,28 +1571,32 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="18">
-        <v>2</v>
+    <row r="11" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="O11" s="15" t="s">
-        <v>26</v>
+      <c r="D11" s="25" t="s">
+        <v>60</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>27</v>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1543,29 +1616,27 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="18">
-        <v>1</v>
+    <row r="12" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>28</v>
+      <c r="D12" s="25" t="s">
+        <v>63</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1584,23 +1655,29 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+    <row r="13" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1619,23 +1696,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+    <row r="14" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1654,27 +1735,31 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="18">
+    <row r="15" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="16">
         <v>2</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q15" s="1"/>
@@ -1695,27 +1780,31 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="18">
+    <row r="16" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="16">
         <v>1</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="1"/>
@@ -1736,27 +1825,31 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="18">
+    <row r="17" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="16">
         <v>1</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="Q17" s="1"/>
@@ -1777,27 +1870,27 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="18">
+    <row r="18" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="16">
         <v>2</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q18" s="1"/>
@@ -1818,27 +1911,27 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="18">
+    <row r="19" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="16">
         <v>1</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="1"/>
@@ -1859,27 +1952,27 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="18">
+    <row r="20" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="16">
         <v>2</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="1"/>
@@ -1900,27 +1993,27 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="18">
+    <row r="21" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="16">
         <v>1</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q21" s="1"/>
@@ -1941,27 +2034,27 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="46.5" customHeight="1">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:33" ht="26.4" customHeight="1">
+      <c r="A22" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="18">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="16">
         <v>3</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1980,27 +2073,27 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="53.25" customHeight="1">
+    <row r="23" spans="1:33" ht="26.4" customHeight="1">
       <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="18">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="16">
         <v>1</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q23" s="1"/>
@@ -2021,27 +2114,27 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.9" customHeight="1">
+    <row r="24" spans="1:33" ht="26.4" customHeight="1">
       <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="18">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="16">
         <v>3</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="10"/>
+      <c r="P24" s="8"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2060,27 +2153,27 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.9" customHeight="1">
+    <row r="25" spans="1:33" ht="26.4" customHeight="1">
       <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="18">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="16">
         <v>3</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="14"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2099,27 +2192,27 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.9" customHeight="1">
+    <row r="26" spans="1:33" ht="26.4" customHeight="1">
       <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="18">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="16">
         <v>3</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="16"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2138,27 +2231,27 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="51.75" customHeight="1">
+    <row r="27" spans="1:33" ht="26.4" customHeight="1">
       <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="18">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="16">
         <v>3</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="16"/>
+      <c r="P27" s="14"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2177,25 +2270,25 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.9" customHeight="1">
+    <row r="28" spans="1:33" ht="26.4" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="18">
+      <c r="B28" s="23"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="16">
         <v>3</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2349,7 +2442,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="L33" s="17"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10040,18 +10133,13 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A7:P28"/>
-  <mergeCells count="11">
-    <mergeCell ref="B2:O3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B2:L3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10060,7 +10148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10068,14 +10156,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="12.75">
+    <row r="2" spans="2:3" ht="13.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10083,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="12.75">
+    <row r="3" spans="2:3" ht="13.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10091,7 +10179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="12.75">
+    <row r="4" spans="2:3" ht="13.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10099,7 +10187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="12.75">
+    <row r="5" spans="2:3" ht="13.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -10107,7 +10195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="12.75">
+    <row r="6" spans="2:3" ht="13.2">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -9,17 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
   <si>
     <t>현태</t>
   </si>
@@ -182,12 +190,6 @@
 HT – M - 003</t>
   </si>
   <si>
-    <t>HT – P - 004</t>
-  </si>
-  <si>
-    <t>HT – M - 004</t>
-  </si>
-  <si>
     <t>HT – P - 005</t>
   </si>
   <si>
@@ -222,18 +224,6 @@
   </si>
   <si>
     <t>HT – M - 010</t>
-  </si>
-  <si>
-    <t>HT – P - 011</t>
-  </si>
-  <si>
-    <t>HT – M - 011</t>
-  </si>
-  <si>
-    <t>KB – P – 013</t>
-  </si>
-  <si>
-    <t>KB – M – 013</t>
   </si>
   <si>
     <t>YS – P – 014
@@ -260,115 +250,510 @@
   </si>
   <si>
     <t>사용자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 진입 화면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 진입 화면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 계정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세보기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 신고</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보확인(메이커명, 목표금액, 기간, 정산방법 등)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세보기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 상품 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보변경</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 계좌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 페이지 내 회원탈퇴 버튼을 통해 탈퇴 가능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 스튜디오</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트를 오픈할 수 있는 메이커 회원(기업) 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 문의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트에 대한 문의, 메이커의 답변 확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 문의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품에 대한 문의, 메이커의 답변 확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 및 사이트 공지사항</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 메인 컨셉 소개 및 펀딩 참여, 펀딩 오픈, 사이트 이용 방법 등 자주 묻는 질문</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 상세보기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 승인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정산</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 정보관리 및 불량회원에 대한 제제(투자제한)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 신청한 프로젝트의 정보 확인 후 승인 또는 거절</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 승인된 프로젝트의 문제 발생 시 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매중인 상품 문제 발생 시 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>로그인/로그아웃, 회원가입, 알림
-프로젝트 검색, 카테고리별 프로젝트 리스트, 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트, 마감 직전 프로젝트, 펀딩 성공 프로젝트, 리워드 펀딩 성공 판매상품</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호 입력 로그인
+프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 비밀번호 입력 로그인
 네이버, 카카오톡, 구글 간편로그인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네이버, 카카오톡, 구글 간편 회원가입
-아이디 중복확인, 비밀번호 재입력, 이름, 전화번호,이메일 등의 개인정보 입력 후 가입
-관심카테고리 설정
-이메일 주소, 이름, 비밀번호만으로 회원가입  간편 회원가입
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 시 이용한 이름, 이메일을 통해서 아이디 찾기
-이름, 이메일을 입력하여 아이디를 찾기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 시 이용한 이름, 이메일, 아이디, 휴대폰번호를 이용하여 비밀번호 찾기
-아이디, 이메일을 입력하여 비밀번호 변경</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 변경</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 계좌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 찾기/비밀번호 찾기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡, 구글 간편 회원가입
+## 이메일 주소, 이름, 비밀번호만으로 회원가입, 관심카테고리 설정  간편 회원가입
+상세정보(전화번호, 계좌) - 필요한 서비스를 이용할때 등록이 안되어있다면 추가하라는 알림이 뜸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 찾기 - 이메일을 입력해보세요 서비스 가입 여부를 확인해드립니다 or 휴대폰번호를 입력해보세요
+비밀번호 찾기 - 가입 시 이용한 이름, 이메일 or 휴대폰번호를 이용하여 이메일로 임시비밀번호 전송</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 판매 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 상품 옵션, 주문 확인, 배송 설정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 / 리워드, 카테고리별 프로젝트 목록, 오픈예정 프로젝트, 달성 완료 프로젝트, 달성 실패 프로젝트, 성공 및 달성 가능성 높은 프로젝트 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기본정보(프로젝트명, 카테고리, 진행기간(시작 날짜, 종료 날짜), 목표금액, 가격, 이미지 등)
+프로젝트 정산방법 및 세부내용 작성 후 등록 신청
+관리자 승인 후 오픈가능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지에서 관심 프로젝트 등록, 마이페이지에서 확인 가능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자프로젝트인 경우 금액 선택 후 결제
+리워드프로젝트인 경우 옵션에 따른 상품 및 금액 선택 후 배송정보 입력, 결제 - 등록한 배송지를 기본 배송지로 설정하시겠습니까?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 프로젝트 신고 페이지로 이동, 신고 시 증거자료 제출 필요(파일 업로드)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 정보(메이커명, 상품명, 상세정보(가격, 이미지-프로젝트 관련 내용 포함, 상세 내용 등))</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 입력한 정보를 수정, 관심 카테고리 설정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>나의 펀딩</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 조회</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 내 프로필 수정을 통해 변경 가능
-회원가입시 입력한 정보를 수정하고 탈퇴하는 기능
-관심 카테고리 설정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 수정 페이지 내 회원탈퇴 버튼을 통해 탈퇴 가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익금 정산 받을 계좌 등록 및 수정
-예치금 충전 및 이용내역</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩한 프로젝트의 목록, 진행상태 확인
-관심 프로젝트 목록 및 관리</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 목록 및 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 스토어</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>리워드 샵에서 구매한 상품의 주문/배송 조회</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 조회 및 상세 내용 확인 및 회원 상태(정상, 제제, 제명) 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 조회 및 상세 내용 확인 및 메이커 상태(정상, 제제, 제명) 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터 관리자 계정
+관리자 계정 등록, 수정
+마스터 관리자는 관리자 권한 부여 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 이전 프로젝트
+진행 중 프로젝트
+진행 완료 프로젝트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩한 프로젝트의 목록, 진행상태 확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 정보(개수 선택), 배송지, 결제정보 입력 후 결제</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">완료 된 프로젝트의 정산 상태 확인 (최종 펀딩 받은 금액, 정산 진행 상태(정산전, x회차 정산 중, 정산완료)) </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트별 / 회차별 입금 해야 하는 금액 및 기간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 스토어 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 상품들과 판매되는 상품 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 성공한 리워드 프로젝트에 한하여 오픈신청 및 관리자 승인 후 오픈
+상품정보(상품명, 상품 상세설명), 가격 등 설정 후 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공지사항 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 목록, FAQ 등록 및 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록, 공지사항 등록 및 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 스토어 승인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 스토어 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 스토어 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 받은 펀딩 성공 리워드 상품에 대한 스토어 오픈 정보 및 상품 옵션 검토 후 승인 또는 거절</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들의 1:1문의와 채팅 문의 답변 작성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈한 프로젝트 목록 및 상세정보
+승인된 프로젝트 오픈 전 수정
+문의 사항 답변</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 글 등록하면 관리자가 답변을 해주는 형태, 바로 답변이 진행이 되면 채팅 형식으로 진행, 바로 답변이 안되면 시간이 지난 후 확인 가능 하도록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 상담</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 상담 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>민기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>민기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>송우</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>송우</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>송우</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>송우</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>송우</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익금 정산 받을 계좌 등록 및 수정, 예치금 충전 및 이용내역, 출금</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -378,7 +763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,21 +812,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -459,28 +833,30 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -509,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -663,6 +1039,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -753,11 +1153,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -780,140 +1221,197 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG991"/>
+  <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1155,7 +1653,7 @@
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1192,22 +1690,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1227,22 +1725,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1375,7 +1873,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1390,13 +1888,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1430,37 +1928,33 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="49.2" customHeight="1">
-      <c r="A8" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="10">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="8" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="19">
+        <v>43858</v>
+      </c>
+      <c r="I8" s="19">
+        <v>43859</v>
+      </c>
+      <c r="J8" s="19">
+        <v>43860</v>
+      </c>
+      <c r="K8" s="19">
+        <v>43861</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1479,33 +1973,35 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="10">
+    <row r="9" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="12">
         <v>1</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="1"/>
@@ -1526,31 +2022,35 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="16">
-        <v>2</v>
-      </c>
-      <c r="O10" s="13" t="s">
+    <row r="10" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="1"/>
@@ -1571,33 +2071,29 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="16">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="11" spans="1:33" ht="63" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1616,27 +2112,29 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+    <row r="12" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1655,29 +2153,31 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1696,27 +2196,29 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+    <row r="14" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1735,33 +2237,29 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="16">
-        <v>2</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>31</v>
-      </c>
+    <row r="15" spans="1:33" ht="46.8">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1780,33 +2278,29 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1825,33 +2319,29 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A17" s="43"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1870,29 +2360,29 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="16">
-        <v>2</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1911,28 +2401,36 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>39</v>
+    <row r="19" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="17">
+        <v>2</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1952,29 +2450,29 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="16">
-        <v>2</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1993,29 +2491,29 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="16">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>43</v>
-      </c>
+    <row r="21" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2034,27 +2532,35 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="16">
-        <v>3</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+    <row r="22" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2073,29 +2579,29 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>45</v>
-      </c>
+    <row r="23" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2114,27 +2620,35 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="16">
-        <v>3</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="8"/>
+    <row r="24" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2153,27 +2667,31 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="16">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="12"/>
+    <row r="25" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2192,27 +2710,29 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="16">
-        <v>3</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="14"/>
+    <row r="26" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2231,27 +2751,29 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="16">
-        <v>3</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="14"/>
+    <row r="27" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2270,25 +2792,29 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="26.4" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="16">
-        <v>3</v>
-      </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+    <row r="28" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2307,17 +2833,31 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+    <row r="29" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2336,17 +2876,29 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+    <row r="30" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2365,20 +2917,29 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+    <row r="31" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2397,23 +2958,29 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+    <row r="32" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2432,21 +2999,29 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+    <row r="33" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2465,25 +3040,29 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+    <row r="34" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2502,25 +3081,31 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+    <row r="35" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2539,25 +3124,35 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+    <row r="36" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="17">
+        <v>2</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2576,25 +3171,35 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+    <row r="37" spans="1:33" ht="28.95" customHeight="1" thickBot="1">
+      <c r="A37" s="67"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="17">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2613,25 +3218,35 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+    <row r="38" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A38" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="17">
+        <v>3</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2650,23 +3265,35 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+    <row r="39" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="17">
+        <v>1</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -2685,23 +3312,31 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+    <row r="40" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2720,23 +3355,31 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="39.6">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2755,23 +3398,29 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+    <row r="42" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2790,23 +3439,29 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+    <row r="43" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -2825,23 +3480,29 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+    <row r="44" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -2860,23 +3521,35 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+    <row r="45" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="17">
+        <v>3</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="10"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -2895,23 +3568,33 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+    <row r="46" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="17">
+        <v>3</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="14"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -2930,23 +3613,33 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+    <row r="47" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="17">
+        <v>3</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="15"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -2965,23 +3658,35 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+    <row r="48" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="17">
+        <v>3</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="15"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -3000,23 +3705,29 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+    <row r="49" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="15"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3035,23 +3746,31 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+    <row r="50" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="17">
+        <v>3</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -3070,23 +3789,31 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+    <row r="51" spans="1:33" ht="39.6">
+      <c r="A51" s="61"/>
+      <c r="B51" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -3108,17 +3835,11 @@
     <row r="52" spans="1:33" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -3143,17 +3864,11 @@
     <row r="53" spans="1:33" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -3185,9 +3900,6 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3255,9 +3967,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3290,9 +4000,11 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3325,9 +4037,11 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3360,9 +4074,11 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3395,9 +4111,11 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -3430,9 +4148,11 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -9370,32 +10090,814 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
+    <row r="232" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
+    <row r="238" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
+    </row>
+    <row r="239" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+    </row>
+    <row r="240" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
+    </row>
+    <row r="241" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
+    <row r="244" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+      <c r="AE244" s="1"/>
+      <c r="AF244" s="1"/>
+      <c r="AG244" s="1"/>
+    </row>
+    <row r="245" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+      <c r="AE245" s="1"/>
+      <c r="AF245" s="1"/>
+      <c r="AG245" s="1"/>
+    </row>
+    <row r="246" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
+      <c r="AE246" s="1"/>
+      <c r="AF246" s="1"/>
+      <c r="AG246" s="1"/>
+    </row>
+    <row r="247" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
+      <c r="AE247" s="1"/>
+      <c r="AF247" s="1"/>
+      <c r="AG247" s="1"/>
+    </row>
+    <row r="248" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
+      <c r="AD248" s="1"/>
+      <c r="AE248" s="1"/>
+      <c r="AF248" s="1"/>
+      <c r="AG248" s="1"/>
+    </row>
+    <row r="249" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
+      <c r="AD249" s="1"/>
+      <c r="AE249" s="1"/>
+      <c r="AF249" s="1"/>
+      <c r="AG249" s="1"/>
+    </row>
+    <row r="250" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
+      <c r="AD250" s="1"/>
+      <c r="AE250" s="1"/>
+      <c r="AF250" s="1"/>
+      <c r="AG250" s="1"/>
+    </row>
+    <row r="251" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
+      <c r="AE251" s="1"/>
+      <c r="AF251" s="1"/>
+      <c r="AG251" s="1"/>
+    </row>
+    <row r="252" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
+      <c r="AD252" s="1"/>
+      <c r="AE252" s="1"/>
+      <c r="AF252" s="1"/>
+      <c r="AG252" s="1"/>
+    </row>
+    <row r="253" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
+      <c r="AD253" s="1"/>
+      <c r="AE253" s="1"/>
+      <c r="AF253" s="1"/>
+      <c r="AG253" s="1"/>
+    </row>
+    <row r="254" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -10131,17 +11633,48 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P28"/>
-  <mergeCells count="6">
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B17"/>
+  <autoFilter ref="A7:P50"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="A9:A37"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11184,7 +12717,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\fun_funding\2. 기능정리 취합\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -18,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서(기존 프로젝트와 비교)'!$A$7:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서(기존 프로젝트와 비교)'!$A$7:$P$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="177">
   <si>
     <t>현태</t>
   </si>
@@ -761,6 +756,43 @@
     <t>프로젝트 수정</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>회원정보변경</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 입력한 정보를 수정, 관심 카테고리 설정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 펀딩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 페이지 내 회원탈퇴 버튼을 통해 탈퇴 가능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익금 정산 받을 계좌 등록 및 수정, 예치금 충전 및 이용내역, 출금</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/로그아웃, 회원가입, 알림(회원이 등록한 관심사에 해당하는 프로젝트 신규 등록시 알림 포함)
+프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩한 프로젝트의 목록, 진행상태 확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 목록 및 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1401,55 +1433,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1468,15 +1451,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,9 +1465,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1515,6 +1486,67 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,22 +1824,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1829,20 +1861,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1990,13 +2022,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +2108,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2125,8 +2157,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2174,8 +2206,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2215,8 +2247,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2256,8 +2288,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2299,8 +2331,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2340,8 +2372,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2381,8 +2413,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2422,8 +2454,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2463,8 +2495,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2504,8 +2536,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2553,8 +2585,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2594,8 +2626,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2635,8 +2667,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2682,8 +2714,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2723,8 +2755,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2770,8 +2802,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="81" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2813,8 +2845,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2854,8 +2886,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2895,8 +2927,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -2936,8 +2968,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -2979,8 +3011,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3020,8 +3052,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3061,8 +3093,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3102,8 +3134,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3143,8 +3175,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3184,8 +3216,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3227,8 +3259,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="76"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3274,8 +3306,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3321,10 +3353,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3368,8 +3400,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3415,7 +3447,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3458,8 +3490,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3501,8 +3533,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3542,8 +3574,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3583,8 +3615,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3624,8 +3656,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3671,8 +3703,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3716,8 +3748,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3761,8 +3793,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3808,8 +3840,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3849,8 +3881,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3892,7 +3924,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="74"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11761,6 +11793,11 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11770,11 +11807,6 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11786,8 +11818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11845,22 +11877,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11882,20 +11914,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12043,13 +12075,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12129,7 +12161,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12137,7 +12169,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
@@ -12178,14 +12210,14 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="20"/>
@@ -12227,12 +12259,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="79" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="20"/>
@@ -12268,12 +12300,12 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="81" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="61" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="20"/>
@@ -12309,14 +12341,14 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="73" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="20"/>
@@ -12352,8 +12384,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12393,8 +12425,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12434,12 +12466,12 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="83" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="61" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="20"/>
@@ -12475,12 +12507,12 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="83" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="20"/>
@@ -12516,12 +12548,12 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="83" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="61" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="20"/>
@@ -12557,8 +12589,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12606,8 +12638,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -12647,8 +12679,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12688,12 +12720,12 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="61" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="20"/>
@@ -12735,8 +12767,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12776,12 +12808,12 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="73" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="20"/>
@@ -12823,14 +12855,14 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="61" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="20"/>
@@ -12866,12 +12898,12 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="63" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="20"/>
@@ -12907,12 +12939,12 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="63" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="20"/>
@@ -12948,12 +12980,12 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="83" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="63" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="20"/>
@@ -12989,15 +13021,15 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
@@ -13032,13 +13064,13 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>64</v>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20" t="s">
@@ -13073,13 +13105,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="83" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="82" t="s">
-        <v>164</v>
+      <c r="D31" s="61" t="s">
+        <v>173</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
@@ -13114,13 +13146,13 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
@@ -13155,13 +13187,13 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
@@ -13196,12 +13228,12 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="83" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="61" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="20"/>
@@ -13237,14 +13269,14 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="75" t="s">
         <v>138</v>
       </c>
       <c r="E35" s="20"/>
@@ -13280,8 +13312,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="76"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13327,12 +13359,12 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="88" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="65" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="52"/>
@@ -13374,10 +13406,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13421,8 +13453,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13468,14 +13500,14 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="90" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="68" t="s">
         <v>114</v>
       </c>
       <c r="E40" s="26"/>
@@ -13511,8 +13543,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13554,8 +13586,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13595,8 +13627,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13636,12 +13668,12 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="90" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="68" t="s">
         <v>122</v>
       </c>
       <c r="E44" s="26"/>
@@ -13677,14 +13709,14 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="74"/>
-      <c r="B45" s="93" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="69" t="s">
         <v>126</v>
       </c>
       <c r="E45" s="20"/>
@@ -13724,12 +13756,12 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="90" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="69" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="20"/>
@@ -13769,12 +13801,12 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="90" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="69" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="20"/>
@@ -13814,8 +13846,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13861,8 +13893,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13902,12 +13934,12 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="95" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="71" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="20"/>
@@ -13945,14 +13977,14 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="74"/>
-      <c r="B51" s="90" t="s">
+      <c r="A51" s="77"/>
+      <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="68" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="20"/>
@@ -21812,13 +21844,8 @@
     <row r="1013" ht="15.75" customHeight="1"/>
     <row r="1014" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P50"/>
+  <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21828,6 +21855,11 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\fun_funding\2. 기능정리 취합\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -865,7 +860,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,12 +900,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,55 +1390,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1468,15 +1408,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,9 +1424,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,10 +1438,71 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1792,22 +1781,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1829,20 +1818,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1990,13 +1979,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +2065,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2125,8 +2114,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="93" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2174,8 +2163,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2215,8 +2204,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2256,8 +2245,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="79" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2299,8 +2288,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2340,8 +2329,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2381,8 +2370,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2422,8 +2411,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2463,8 +2452,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2504,8 +2493,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="79" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2553,8 +2542,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2594,8 +2583,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2635,8 +2624,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2682,8 +2671,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2723,8 +2712,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2770,8 +2759,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="79" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2813,8 +2802,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2854,8 +2843,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2895,8 +2884,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -2936,8 +2925,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -2979,8 +2968,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3020,8 +3009,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3061,8 +3050,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3102,8 +3091,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3143,8 +3132,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3184,8 +3173,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="82" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3227,8 +3216,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="76"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3274,8 +3263,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3321,10 +3310,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="74" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3368,8 +3357,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3415,7 +3404,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3458,8 +3447,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3501,8 +3490,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3542,8 +3531,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3583,8 +3572,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3624,8 +3613,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="75" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3671,8 +3660,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3716,8 +3705,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3761,8 +3750,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="75" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3808,8 +3797,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3849,8 +3838,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3892,7 +3881,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="74"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11761,6 +11750,11 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11770,11 +11764,6 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11786,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11845,22 +11834,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11882,20 +11871,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12043,13 +12032,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12129,7 +12118,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12178,14 +12167,14 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="20"/>
@@ -12227,12 +12216,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="79" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="20"/>
@@ -12268,12 +12257,12 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="81" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="61" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="20"/>
@@ -12309,14 +12298,14 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="73" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="20"/>
@@ -12352,8 +12341,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12393,8 +12382,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12434,12 +12423,12 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="83" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="61" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="20"/>
@@ -12475,12 +12464,12 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="83" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="20"/>
@@ -12516,12 +12505,12 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="83" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="61" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="20"/>
@@ -12557,8 +12546,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="79" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12606,8 +12595,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -12647,8 +12636,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12688,12 +12677,12 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="61" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="20"/>
@@ -12735,8 +12724,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12776,12 +12765,12 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="73" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="20"/>
@@ -12823,14 +12812,14 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="61" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="20"/>
@@ -12866,12 +12855,12 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="63" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="20"/>
@@ -12907,12 +12896,12 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="63" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="20"/>
@@ -12948,12 +12937,12 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="83" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="63" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="20"/>
@@ -12989,8 +12978,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -13032,12 +13021,12 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="83" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="61" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="20"/>
@@ -13073,12 +13062,12 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="83" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="61" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="20"/>
@@ -13114,8 +13103,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -13155,8 +13144,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -13196,12 +13185,12 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="83" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="61" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="20"/>
@@ -13237,8 +13226,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="82" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="99" t="s">
@@ -13280,8 +13269,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="76"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13327,12 +13316,12 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="88" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="65" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="52"/>
@@ -13374,10 +13363,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="74" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13421,8 +13410,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13468,14 +13457,14 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="90" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="68" t="s">
         <v>114</v>
       </c>
       <c r="E40" s="26"/>
@@ -13511,8 +13500,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13554,8 +13543,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13595,8 +13584,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13636,12 +13625,12 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="90" t="s">
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="68" t="s">
         <v>122</v>
       </c>
       <c r="E44" s="26"/>
@@ -13677,14 +13666,14 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="74"/>
-      <c r="B45" s="93" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="69" t="s">
         <v>126</v>
       </c>
       <c r="E45" s="20"/>
@@ -13724,12 +13713,12 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="90" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="69" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="20"/>
@@ -13769,12 +13758,12 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="90" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="69" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="20"/>
@@ -13814,8 +13803,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="75" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13861,8 +13850,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13902,12 +13891,12 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="95" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="71" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="20"/>
@@ -13945,14 +13934,14 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="74"/>
-      <c r="B51" s="90" t="s">
+      <c r="A51" s="75"/>
+      <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="68" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="20"/>
@@ -21814,11 +21803,6 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21828,6 +21812,11 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서(기존 프로젝트와 비교)'!$A$7:$P$51</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="178">
   <si>
     <t>현태</t>
   </si>
@@ -793,6 +793,10 @@
     <t>관심 프로젝트 목록 및 관리</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>리워드 상품 옵션, 주문 확인, 배송 설정, 문의글 답변</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1487,36 +1491,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,10 +1507,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,6 +1548,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1824,22 +1828,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1861,20 +1865,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2022,13 +2026,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2157,8 +2161,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2206,8 +2210,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2247,8 +2251,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2288,8 +2292,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2331,8 +2335,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2372,8 +2376,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="79"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2413,8 +2417,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2454,8 +2458,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2495,8 +2499,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2536,8 +2540,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2585,8 +2589,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2626,8 +2630,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2667,8 +2671,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2714,8 +2718,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2755,8 +2759,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2802,8 +2806,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="88" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2845,8 +2849,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2886,8 +2890,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2927,8 +2931,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -2968,8 +2972,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="88" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -3011,8 +3015,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3052,8 +3056,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3093,8 +3097,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3134,8 +3138,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3175,8 +3179,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3216,8 +3220,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="86" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3259,8 +3263,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3306,8 +3310,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3353,10 +3357,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3400,8 +3404,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3447,7 +3451,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3490,8 +3494,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77" t="s">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3533,8 +3537,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3574,8 +3578,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3615,8 +3619,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3656,8 +3660,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="92" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3703,8 +3707,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3748,8 +3752,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3793,8 +3797,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3840,8 +3844,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3881,8 +3885,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3924,7 +3928,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="77"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11793,11 +11797,6 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11807,6 +11806,11 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11818,8 +11822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11877,22 +11881,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11914,20 +11918,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12075,13 +12079,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12161,7 +12165,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12210,8 +12214,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -12259,8 +12263,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
@@ -12300,8 +12304,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
@@ -12341,8 +12345,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -12384,8 +12388,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12425,8 +12429,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="79"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12466,8 +12470,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
@@ -12507,8 +12511,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
@@ -12548,13 +12552,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
@@ -12589,8 +12593,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12638,8 +12642,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -12679,8 +12683,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12720,8 +12724,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
@@ -12767,8 +12771,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12808,8 +12812,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
@@ -12855,8 +12859,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="97" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="62" t="s">
@@ -12898,8 +12902,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="99"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
@@ -12939,8 +12943,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
@@ -12980,8 +12984,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
@@ -13021,8 +13025,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="88" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -13064,8 +13068,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="62" t="s">
         <v>170</v>
       </c>
@@ -13105,8 +13109,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
@@ -13146,8 +13150,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>171</v>
       </c>
@@ -13187,8 +13191,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -13228,8 +13232,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
@@ -13269,8 +13273,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="86" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="74" t="s">
@@ -13312,8 +13316,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13359,8 +13363,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
@@ -13406,10 +13410,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13453,8 +13457,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13500,7 +13504,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
@@ -13543,8 +13547,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77" t="s">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13586,8 +13590,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13627,8 +13631,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13668,8 +13672,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
@@ -13709,8 +13713,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="97" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="100" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="66" t="s">
@@ -13756,8 +13760,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
@@ -13801,8 +13805,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="97"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
@@ -13846,8 +13850,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13893,8 +13897,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13934,8 +13938,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
@@ -13977,7 +13981,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="77"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
@@ -21846,6 +21850,11 @@
   </sheetData>
   <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21855,11 +21864,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="179">
   <si>
     <t>현태</t>
   </si>
@@ -794,7 +794,12 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>리워드 상품 옵션, 주문 확인, 배송 설정, 문의글 답변</t>
+    <t>펀딩 성공한 리워드 프로젝트에 한하여 오픈신청 및 관리자 승인 후 오픈
+상품정보(상품명, 상품 상세설명, 상품 옵션), 가격 등 설정 후 등록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 확인, 배송 설정, 문의글 답변</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1491,6 +1496,36 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,37 +1542,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,9 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,22 +1833,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1865,20 +1870,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2026,13 +2031,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2117,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2161,8 +2166,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2210,8 +2215,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2251,8 +2256,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2292,8 +2297,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2335,8 +2340,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2376,8 +2381,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="94"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2417,8 +2422,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2458,8 +2463,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2499,8 +2504,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2540,8 +2545,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2589,8 +2594,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2630,8 +2635,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2671,8 +2676,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2718,8 +2723,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2759,8 +2764,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2806,8 +2811,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="88" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="81" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2849,8 +2854,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2890,8 +2895,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2931,8 +2936,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -2972,8 +2977,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -3015,8 +3020,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3056,8 +3061,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3097,8 +3102,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3138,8 +3143,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3179,8 +3184,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3220,8 +3225,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3263,8 +3268,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3310,8 +3315,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3357,10 +3362,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3404,8 +3409,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3451,7 +3456,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="92"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3494,8 +3499,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3537,8 +3542,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3578,8 +3583,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3619,8 +3624,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3660,8 +3665,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3707,8 +3712,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3752,8 +3757,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3797,8 +3802,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3844,8 +3849,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3885,8 +3890,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3928,7 +3933,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="92"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11797,6 +11802,11 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11806,11 +11816,6 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11822,8 +11827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11881,22 +11886,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11918,20 +11923,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12079,13 +12084,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12165,7 +12170,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12214,8 +12219,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -12263,8 +12268,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
@@ -12304,8 +12309,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
@@ -12345,8 +12350,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -12388,8 +12393,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12429,8 +12434,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="94"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12470,8 +12475,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
@@ -12511,13 +12516,13 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
@@ -12552,13 +12557,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
@@ -12593,8 +12598,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12642,8 +12647,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -12683,8 +12688,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12724,8 +12729,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
@@ -12771,8 +12776,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12812,8 +12817,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
@@ -12859,8 +12864,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="97" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="98" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="62" t="s">
@@ -12902,8 +12907,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
@@ -12943,8 +12948,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
@@ -12984,8 +12989,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
@@ -13025,8 +13030,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -13068,8 +13073,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="62" t="s">
         <v>170</v>
       </c>
@@ -13109,8 +13114,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
@@ -13150,8 +13155,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
         <v>171</v>
       </c>
@@ -13191,8 +13196,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -13232,8 +13237,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
@@ -13273,8 +13278,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="74" t="s">
@@ -13316,8 +13321,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13363,8 +13368,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
@@ -13410,10 +13415,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13457,8 +13462,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13504,7 +13509,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="92"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
@@ -13547,8 +13552,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13590,8 +13595,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13631,8 +13636,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13672,8 +13677,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
@@ -13713,8 +13718,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="100" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="97" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="66" t="s">
@@ -13760,8 +13765,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
@@ -13805,8 +13810,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
@@ -13850,8 +13855,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13897,8 +13902,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13938,8 +13943,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
@@ -13981,7 +13986,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="92"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
@@ -21850,11 +21855,6 @@
   </sheetData>
   <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21864,6 +21864,11 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\2. 기능정리 취합\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
   <si>
     <t>현태</t>
   </si>
@@ -781,11 +786,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>로그인/로그아웃, 회원가입, 알림(회원이 등록한 관심사에 해당하는 프로젝트 신규 등록시 알림 포함)
-프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>펀딩한 프로젝트의 목록, 진행상태 확인</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -800,6 +800,32 @@
   </si>
   <si>
     <t>주문 확인, 배송 설정, 문의글 답변</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡, 구글 간편 회원가입
+## 이메일 주소, 이름, 비밀번호만으로 회원가입, 관심카테고리 설정  간편 회원가입
+상세정보(전화번호, 계좌) - 필요한 서비스를 이용할때 등록이 안되어있다면 추가하라는 알림이 뜸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 찾기 - 이메일을 입력해보세요 서비스 가입 여부를 확인해드립니다 or 휴대폰번호를 입력해보세요
+비밀번호 찾기 - 가입 시 이용한 이름, 이메일 or 휴대폰번호를 이용하여 이메일로 임시비밀번호 전송</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 비밀번호 입력 로그인
+네이버, 카카오톡, 구글 간편로그인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 검색 기능
+투자 / 리워드, 카테고리별 프로젝트 목록, 오픈예정 프로젝트, 달성 완료 프로젝트, 달성 실패 프로젝트, 성공 및 달성 가능성 높은 프로젝트 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/로그아웃, 회원가입, 알림(회원이 등록한 관심사에 해당하는 프로젝트 신규 등록시 알림 포함)
+프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1496,36 +1522,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,10 +1538,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,6 +1579,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1833,22 +1859,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1870,20 +1896,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2031,13 +2057,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2143,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2166,8 +2192,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2215,8 +2241,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2256,8 +2282,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2297,8 +2323,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2340,8 +2366,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2381,8 +2407,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="79"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2422,8 +2448,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2463,8 +2489,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2504,8 +2530,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2545,8 +2571,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2594,8 +2620,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2635,8 +2661,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2676,8 +2702,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2723,8 +2749,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2764,8 +2790,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2811,8 +2837,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="88" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2854,8 +2880,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2895,8 +2921,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2936,8 +2962,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -2977,8 +3003,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="88" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -3020,8 +3046,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3061,8 +3087,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3102,8 +3128,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3143,8 +3169,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3184,8 +3210,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3225,8 +3251,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="86" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3268,8 +3294,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3315,8 +3341,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3362,10 +3388,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3409,8 +3435,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3456,7 +3482,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3499,8 +3525,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77" t="s">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3542,8 +3568,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3583,8 +3609,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3624,8 +3650,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3665,8 +3691,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="92" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3712,8 +3738,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3757,8 +3783,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3802,8 +3828,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3849,8 +3875,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3890,8 +3916,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3933,7 +3959,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="77"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11802,11 +11828,6 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11816,6 +11837,11 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11827,8 +11853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11886,22 +11912,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11923,20 +11949,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12084,13 +12110,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12170,7 +12196,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12178,7 +12204,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
@@ -12219,15 +12245,15 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
@@ -12268,13 +12294,13 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
@@ -12309,13 +12335,13 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
@@ -12350,8 +12376,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -12393,8 +12419,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12434,8 +12460,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="79"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12475,8 +12501,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
@@ -12516,13 +12542,13 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
@@ -12557,13 +12583,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
@@ -12597,16 +12623,16 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81" t="s">
+    <row r="19" spans="1:33" ht="50.25" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
@@ -12647,8 +12673,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -12688,8 +12714,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12729,8 +12755,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
@@ -12776,8 +12802,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12817,8 +12843,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
@@ -12864,8 +12890,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="97" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="62" t="s">
@@ -12907,8 +12933,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="99"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
@@ -12948,8 +12974,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
@@ -12989,8 +13015,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
@@ -13030,8 +13056,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="88" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -13073,8 +13099,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="62" t="s">
         <v>170</v>
       </c>
@@ -13114,8 +13140,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
@@ -13155,13 +13181,13 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>171</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
@@ -13196,13 +13222,13 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
@@ -13237,8 +13263,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
@@ -13278,8 +13304,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="86" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="74" t="s">
@@ -13321,8 +13347,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13368,8 +13394,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
@@ -13415,10 +13441,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13462,8 +13488,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13509,7 +13535,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
@@ -13552,8 +13578,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77" t="s">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13595,8 +13621,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13636,8 +13662,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13677,8 +13703,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
@@ -13718,8 +13744,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="97" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="100" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="66" t="s">
@@ -13765,8 +13791,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
@@ -13810,8 +13836,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="97"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
@@ -13855,8 +13881,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13902,8 +13928,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13943,8 +13969,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
@@ -13986,7 +14012,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="77"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
@@ -21855,6 +21881,11 @@
   </sheetData>
   <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21864,11 +21895,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\2. 기능정리 취합\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\2. 기능정리 취합\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
   <si>
     <t>현태</t>
   </si>
@@ -819,13 +819,21 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 검색 기능
-투자 / 리워드, 카테고리별 프로젝트 목록, 오픈예정 프로젝트, 달성 완료 프로젝트, 달성 실패 프로젝트, 성공 및 달성 가능성 높은 프로젝트 목록</t>
+    <t>로그인/로그아웃, 회원가입, 알림(회원이 등록한 관심사에 해당하는 프로젝트 신규 등록시 알림 포함)
+프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>로그인/로그아웃, 회원가입, 알림(회원이 등록한 관심사에 해당하는 프로젝트 신규 등록시 알림 포함)
-프로젝트 검색, 카테고리별 프로젝트 리스트 네비게이션 바, 슬라이드 배너광고, 추천 프로젝트 리스트(관리자가 선택한 프로젝트), 마감 직전 프로젝트, 리워드 펀딩 성공 판매 상품</t>
+    <t>옵션에 따른 상품 및 금액 선택 후 배송정보 입력, 결제</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 검색 기능
+카테고리별 프로젝트 목록, 오픈예정 프로젝트, 달성 완료 프로젝트, 달성 실패 프로젝트, 성공 및 달성 가능성 높은 프로젝트 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보확인(메이커명, 목표금액, 기간 등)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1522,6 +1530,36 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,37 +1576,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,9 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,22 +1867,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1896,20 +1904,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2057,13 +2065,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2143,7 +2151,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2192,8 +2200,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2241,8 +2249,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
@@ -2282,8 +2290,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="35" t="s">
         <v>91</v>
       </c>
@@ -2323,8 +2331,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -2366,8 +2374,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -2407,8 +2415,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="94"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -2448,8 +2456,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="36" t="s">
         <v>121</v>
       </c>
@@ -2489,8 +2497,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
@@ -2530,8 +2538,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2571,8 +2579,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -2620,8 +2628,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
@@ -2661,8 +2669,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -2702,8 +2710,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="35" t="s">
         <v>53</v>
       </c>
@@ -2749,8 +2757,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -2790,8 +2798,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
@@ -2837,8 +2845,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="88" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="81" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2880,8 +2888,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="36" t="s">
         <v>57</v>
       </c>
@@ -2921,8 +2929,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
@@ -2962,8 +2970,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
@@ -3003,8 +3011,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -3046,8 +3054,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="36" t="s">
         <v>62</v>
       </c>
@@ -3087,8 +3095,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -3128,8 +3136,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
@@ -3169,8 +3177,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -3210,8 +3218,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
@@ -3251,8 +3259,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3294,8 +3302,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -3341,8 +3349,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="50" t="s">
         <v>71</v>
       </c>
@@ -3388,10 +3396,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -3435,8 +3443,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="24" t="s">
         <v>81</v>
       </c>
@@ -3482,7 +3490,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="92"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3525,8 +3533,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -3568,8 +3576,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="24" t="s">
         <v>82</v>
       </c>
@@ -3609,8 +3617,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
@@ -3650,8 +3658,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="24" t="s">
         <v>84</v>
       </c>
@@ -3691,8 +3699,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3738,8 +3746,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="24" t="s">
         <v>132</v>
       </c>
@@ -3783,8 +3791,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="24" t="s">
         <v>133</v>
       </c>
@@ -3828,8 +3836,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3875,8 +3883,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="24" t="s">
         <v>128</v>
       </c>
@@ -3916,8 +3924,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="20" t="s">
         <v>140</v>
       </c>
@@ -3959,7 +3967,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="92"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="24" t="s">
         <v>115</v>
       </c>
@@ -11828,6 +11836,11 @@
   </sheetData>
   <autoFilter ref="A7:P50"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="A9:A37"/>
     <mergeCell ref="B29:B34"/>
@@ -11837,11 +11850,6 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11853,8 +11861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11912,22 +11920,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11949,20 +11957,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -12110,13 +12118,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -12196,7 +12204,7 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -12204,7 +12212,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
@@ -12245,8 +12253,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="95" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -12294,8 +12302,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="58" t="s">
         <v>49</v>
       </c>
@@ -12335,8 +12343,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="60" t="s">
         <v>91</v>
       </c>
@@ -12376,8 +12384,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -12419,8 +12427,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="36" t="s">
         <v>67</v>
       </c>
@@ -12460,8 +12468,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="94"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
@@ -12501,8 +12509,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="62" t="s">
         <v>121</v>
       </c>
@@ -12542,8 +12550,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="62" t="s">
         <v>124</v>
       </c>
@@ -12583,8 +12591,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="62" t="s">
         <v>95</v>
       </c>
@@ -12624,15 +12632,15 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
@@ -12673,13 +12681,13 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
@@ -12714,8 +12722,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
         <v>52</v>
       </c>
@@ -12755,13 +12763,13 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
@@ -12802,8 +12810,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
@@ -12843,8 +12851,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="60" t="s">
         <v>72</v>
       </c>
@@ -12890,8 +12898,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="97" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="98" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="62" t="s">
@@ -12933,8 +12941,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="62" t="s">
         <v>57</v>
       </c>
@@ -12974,8 +12982,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="62" t="s">
         <v>58</v>
       </c>
@@ -13015,8 +13023,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="62" t="s">
         <v>74</v>
       </c>
@@ -13056,8 +13064,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -13099,8 +13107,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="62" t="s">
         <v>170</v>
       </c>
@@ -13140,8 +13148,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="62" t="s">
         <v>63</v>
       </c>
@@ -13181,8 +13189,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="36" t="s">
         <v>171</v>
       </c>
@@ -13222,8 +13230,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="36" t="s">
         <v>105</v>
       </c>
@@ -13263,8 +13271,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="62" t="s">
         <v>107</v>
       </c>
@@ -13304,8 +13312,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="74" t="s">
@@ -13347,8 +13355,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
@@ -13394,8 +13402,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="64" t="s">
         <v>71</v>
       </c>
@@ -13441,10 +13449,10 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -13488,8 +13496,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="44" t="s">
         <v>81</v>
       </c>
@@ -13535,7 +13543,7 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="92"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="66" t="s">
         <v>111</v>
       </c>
@@ -13578,8 +13586,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -13621,8 +13629,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="44" t="s">
         <v>82</v>
       </c>
@@ -13662,8 +13670,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="44" t="s">
         <v>167</v>
       </c>
@@ -13703,8 +13711,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="66" t="s">
         <v>84</v>
       </c>
@@ -13744,8 +13752,8 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="100" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="97" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="66" t="s">
@@ -13791,8 +13799,8 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="66" t="s">
         <v>132</v>
       </c>
@@ -13836,8 +13844,8 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="66" t="s">
         <v>133</v>
       </c>
@@ -13881,8 +13889,8 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="44" t="s">
@@ -13928,8 +13936,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="44" t="s">
         <v>71</v>
       </c>
@@ -13969,8 +13977,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="70" t="s">
         <v>140</v>
       </c>
@@ -14012,7 +14020,7 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="92"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="66" t="s">
         <v>115</v>
       </c>
@@ -21881,11 +21889,6 @@
   </sheetData>
   <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21895,6 +21898,11 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="188">
   <si>
     <t>현태</t>
   </si>
@@ -834,6 +834,18 @@
     <t>프로젝트 정보확인(메이커명, 목표금액, 기간 등)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>신고 프로젝트 관리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>민기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 프로젝트 관리 - 프로젝트 정지, 반려</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1490,31 +1502,11 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1531,7 +1523,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,17 +1569,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1771,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1830,22 +1851,22 @@
     </row>
     <row r="2" spans="2:34" ht="19.5" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1867,20 +1888,20 @@
     </row>
     <row r="3" spans="2:34" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2010,35 +2031,35 @@
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="2:34" ht="27.75" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="93" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="72" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -2069,7 +2090,7 @@
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -2118,8 +2139,8 @@
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B9" s="86"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="92" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2167,8 +2188,8 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="2:34" ht="63" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="30" t="s">
         <v>49</v>
       </c>
@@ -2208,8 +2229,8 @@
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="30" t="s">
         <v>91</v>
       </c>
@@ -2249,8 +2270,8 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B12" s="86"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="78" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -2292,8 +2313,8 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B13" s="86"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="31" t="s">
         <v>67</v>
       </c>
@@ -2333,8 +2354,8 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="2:34" ht="40.5">
-      <c r="B14" s="86"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="31" t="s">
         <v>68</v>
       </c>
@@ -2374,8 +2395,8 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="31" t="s">
         <v>124</v>
       </c>
@@ -2415,8 +2436,8 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B16" s="86"/>
-      <c r="C16" s="82"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="31" t="s">
         <v>95</v>
       </c>
@@ -2456,8 +2477,8 @@
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="78" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -2505,8 +2526,8 @@
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="81"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="30" t="s">
         <v>51</v>
       </c>
@@ -2546,8 +2567,8 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B19" s="86"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="30" t="s">
         <v>52</v>
       </c>
@@ -2587,8 +2608,8 @@
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B20" s="86"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="30" t="s">
         <v>53</v>
       </c>
@@ -2634,8 +2655,8 @@
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B21" s="86"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="30" t="s">
         <v>54</v>
       </c>
@@ -2675,8 +2696,8 @@
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="30" t="s">
         <v>72</v>
       </c>
@@ -2722,8 +2743,8 @@
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="80" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="31" t="s">
@@ -2765,8 +2786,8 @@
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B24" s="86"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="31" t="s">
         <v>57</v>
       </c>
@@ -2806,8 +2827,8 @@
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B25" s="86"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="31" t="s">
         <v>58</v>
       </c>
@@ -2847,8 +2868,8 @@
       <c r="AH25" s="1"/>
     </row>
     <row r="26" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="31" t="s">
         <v>74</v>
       </c>
@@ -2888,8 +2909,8 @@
       <c r="AH26" s="1"/>
     </row>
     <row r="27" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B27" s="86"/>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="78" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -2931,8 +2952,8 @@
       <c r="AH27" s="1"/>
     </row>
     <row r="28" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B28" s="86"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="31" t="s">
         <v>62</v>
       </c>
@@ -2972,8 +2993,8 @@
       <c r="AH28" s="1"/>
     </row>
     <row r="29" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="31" t="s">
         <v>63</v>
       </c>
@@ -3013,8 +3034,8 @@
       <c r="AH29" s="1"/>
     </row>
     <row r="30" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="31" t="s">
         <v>104</v>
       </c>
@@ -3054,8 +3075,8 @@
       <c r="AH30" s="1"/>
     </row>
     <row r="31" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="31" t="s">
         <v>105</v>
       </c>
@@ -3095,8 +3116,8 @@
       <c r="AH31" s="1"/>
     </row>
     <row r="32" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="31" t="s">
         <v>107</v>
       </c>
@@ -3136,8 +3157,8 @@
       <c r="AH32" s="1"/>
     </row>
     <row r="33" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="78" t="s">
+      <c r="B33" s="76"/>
+      <c r="C33" s="81" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -3179,8 +3200,8 @@
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="78"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="33" t="s">
         <v>70</v>
       </c>
@@ -3226,8 +3247,8 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="2:34" ht="28.9" customHeight="1" thickBot="1">
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="45" t="s">
         <v>71</v>
       </c>
@@ -3273,10 +3294,10 @@
       <c r="AH35" s="1"/>
     </row>
     <row r="36" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="73" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="23" t="s">
@@ -3320,8 +3341,8 @@
       <c r="AH36" s="1"/>
     </row>
     <row r="37" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="19" t="s">
         <v>81</v>
       </c>
@@ -3367,7 +3388,7 @@
       <c r="AH37" s="1"/>
     </row>
     <row r="38" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B38" s="84"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="19" t="s">
         <v>111</v>
       </c>
@@ -3410,8 +3431,8 @@
       <c r="AH38" s="1"/>
     </row>
     <row r="39" spans="2:34" ht="36">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84" t="s">
+      <c r="B39" s="74"/>
+      <c r="C39" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -3453,8 +3474,8 @@
       <c r="AH39" s="1"/>
     </row>
     <row r="40" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="19" t="s">
         <v>82</v>
       </c>
@@ -3494,8 +3515,8 @@
       <c r="AH40" s="1"/>
     </row>
     <row r="41" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="19" t="s">
         <v>83</v>
       </c>
@@ -3535,17 +3556,17 @@
       <c r="AH41" s="1"/>
     </row>
     <row r="42" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="19" t="s">
-        <v>84</v>
+      <c r="B42" s="74"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="71" t="s">
+        <v>185</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F42" s="21"/>
-      <c r="G42" s="19" t="s">
-        <v>142</v>
+      <c r="G42" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -3576,8 +3597,8 @@
       <c r="AH42" s="1"/>
     </row>
     <row r="43" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84" t="s">
+      <c r="B43" s="74"/>
+      <c r="C43" s="74" t="s">
         <v>125</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -3623,8 +3644,8 @@
       <c r="AH43" s="1"/>
     </row>
     <row r="44" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="19" t="s">
         <v>132</v>
       </c>
@@ -3668,8 +3689,8 @@
       <c r="AH44" s="1"/>
     </row>
     <row r="45" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="19" t="s">
         <v>133</v>
       </c>
@@ -3713,8 +3734,8 @@
       <c r="AH45" s="1"/>
     </row>
     <row r="46" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84" t="s">
+      <c r="B46" s="74"/>
+      <c r="C46" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -3760,8 +3781,8 @@
       <c r="AH46" s="1"/>
     </row>
     <row r="47" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="19" t="s">
         <v>128</v>
       </c>
@@ -3801,8 +3822,8 @@
       <c r="AH47" s="1"/>
     </row>
     <row r="48" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="15" t="s">
         <v>140</v>
       </c>
@@ -3844,7 +3865,7 @@
       <c r="AH48" s="1"/>
     </row>
     <row r="49" spans="2:34" ht="36">
-      <c r="B49" s="84"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="19" t="s">
         <v>115</v>
       </c>
@@ -11713,6 +11734,11 @@
   </sheetData>
   <autoFilter ref="B7:Q49"/>
   <mergeCells count="14">
+    <mergeCell ref="C2:P3"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="B36:B49"/>
     <mergeCell ref="B8:B35"/>
     <mergeCell ref="C27:C32"/>
@@ -11722,11 +11748,6 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C2:P3"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11798,22 +11819,22 @@
     </row>
     <row r="2" spans="2:34" ht="19.5" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -11835,20 +11856,20 @@
     </row>
     <row r="3" spans="2:34" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -11978,35 +11999,35 @@
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="2:34" ht="27.75" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="93" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="72" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -12037,7 +12058,7 @@
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -12086,8 +12107,8 @@
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B9" s="86"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="92" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="53" t="s">
@@ -12135,8 +12156,8 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="2:34" ht="63" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="53" t="s">
         <v>49</v>
       </c>
@@ -12176,8 +12197,8 @@
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="55" t="s">
         <v>91</v>
       </c>
@@ -12217,8 +12238,8 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B12" s="86"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="78" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="57" t="s">
@@ -12260,8 +12281,8 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B13" s="86"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="31" t="s">
         <v>67</v>
       </c>
@@ -12301,8 +12322,8 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="2:34" ht="40.5">
-      <c r="B14" s="86"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="31" t="s">
         <v>68</v>
       </c>
@@ -12342,8 +12363,8 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="57" t="s">
         <v>121</v>
       </c>
@@ -12383,8 +12404,8 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B16" s="86"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="57" t="s">
         <v>124</v>
       </c>
@@ -12424,8 +12445,8 @@
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="2:34" ht="46.9" customHeight="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="57" t="s">
         <v>95</v>
       </c>
@@ -12465,8 +12486,8 @@
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="2:34" ht="50.25" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="80" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="78" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="30" t="s">
@@ -12514,8 +12535,8 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B19" s="86"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="30" t="s">
         <v>51</v>
       </c>
@@ -12555,8 +12576,8 @@
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B20" s="86"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="30" t="s">
         <v>52</v>
       </c>
@@ -12596,8 +12617,8 @@
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="2:34" ht="44.25" customHeight="1">
-      <c r="B21" s="86"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="55" t="s">
         <v>53</v>
       </c>
@@ -12643,8 +12664,8 @@
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30" t="s">
         <v>54</v>
       </c>
@@ -12684,8 +12705,8 @@
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="55" t="s">
         <v>72</v>
       </c>
@@ -12731,8 +12752,8 @@
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B24" s="86"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="95" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="57" t="s">
@@ -12774,8 +12795,8 @@
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B25" s="86"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="57" t="s">
         <v>57</v>
       </c>
@@ -12815,8 +12836,8 @@
       <c r="AH25" s="1"/>
     </row>
     <row r="26" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="57" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +12877,8 @@
       <c r="AH26" s="1"/>
     </row>
     <row r="27" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B27" s="86"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="57" t="s">
         <v>74</v>
       </c>
@@ -12897,8 +12918,8 @@
       <c r="AH27" s="1"/>
     </row>
     <row r="28" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B28" s="86"/>
-      <c r="C28" s="80" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="78" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -12940,8 +12961,8 @@
       <c r="AH28" s="1"/>
     </row>
     <row r="29" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="57" t="s">
         <v>170</v>
       </c>
@@ -12981,8 +13002,8 @@
       <c r="AH29" s="1"/>
     </row>
     <row r="30" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="57" t="s">
         <v>63</v>
       </c>
@@ -13022,8 +13043,8 @@
       <c r="AH30" s="1"/>
     </row>
     <row r="31" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="31" t="s">
         <v>171</v>
       </c>
@@ -13063,8 +13084,8 @@
       <c r="AH31" s="1"/>
     </row>
     <row r="32" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="31" t="s">
         <v>105</v>
       </c>
@@ -13104,8 +13125,8 @@
       <c r="AH32" s="1"/>
     </row>
     <row r="33" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="57" t="s">
         <v>107</v>
       </c>
@@ -13145,8 +13166,8 @@
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="78" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="81" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="69" t="s">
@@ -13188,8 +13209,8 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="78"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="33" t="s">
         <v>70</v>
       </c>
@@ -13235,8 +13256,8 @@
       <c r="AH35" s="1"/>
     </row>
     <row r="36" spans="2:34" ht="28.9" customHeight="1" thickBot="1">
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="59" t="s">
         <v>71</v>
       </c>
@@ -13282,10 +13303,10 @@
       <c r="AH36" s="1"/>
     </row>
     <row r="37" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="73" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="36" t="s">
@@ -13329,8 +13350,8 @@
       <c r="AH37" s="1"/>
     </row>
     <row r="38" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="39" t="s">
         <v>81</v>
       </c>
@@ -13376,7 +13397,7 @@
       <c r="AH38" s="1"/>
     </row>
     <row r="39" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B39" s="84"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="61" t="s">
         <v>111</v>
       </c>
@@ -13419,8 +13440,8 @@
       <c r="AH39" s="1"/>
     </row>
     <row r="40" spans="2:34" ht="36">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="74"/>
+      <c r="C40" s="74" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="39" t="s">
@@ -13462,8 +13483,8 @@
       <c r="AH40" s="1"/>
     </row>
     <row r="41" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="39" t="s">
         <v>82</v>
       </c>
@@ -13503,8 +13524,8 @@
       <c r="AH41" s="1"/>
     </row>
     <row r="42" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="39" t="s">
         <v>167</v>
       </c>
@@ -13544,8 +13565,8 @@
       <c r="AH42" s="1"/>
     </row>
     <row r="43" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="61" t="s">
         <v>84</v>
       </c>
@@ -13585,8 +13606,8 @@
       <c r="AH43" s="1"/>
     </row>
     <row r="44" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B44" s="84"/>
-      <c r="C44" s="92" t="s">
+      <c r="B44" s="74"/>
+      <c r="C44" s="94" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="61" t="s">
@@ -13632,8 +13653,8 @@
       <c r="AH44" s="1"/>
     </row>
     <row r="45" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B45" s="84"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="61" t="s">
         <v>132</v>
       </c>
@@ -13677,8 +13698,8 @@
       <c r="AH45" s="1"/>
     </row>
     <row r="46" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B46" s="84"/>
-      <c r="C46" s="92"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="61" t="s">
         <v>133</v>
       </c>
@@ -13722,8 +13743,8 @@
       <c r="AH46" s="1"/>
     </row>
     <row r="47" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84" t="s">
+      <c r="B47" s="74"/>
+      <c r="C47" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="39" t="s">
@@ -13769,8 +13790,8 @@
       <c r="AH47" s="1"/>
     </row>
     <row r="48" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="39" t="s">
         <v>71</v>
       </c>
@@ -13810,8 +13831,8 @@
       <c r="AH48" s="1"/>
     </row>
     <row r="49" spans="2:34" ht="28.9" customHeight="1">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="65" t="s">
         <v>140</v>
       </c>
@@ -13853,7 +13874,7 @@
       <c r="AH49" s="1"/>
     </row>
     <row r="50" spans="2:34" ht="36">
-      <c r="B50" s="84"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="61" t="s">
         <v>115</v>
       </c>
@@ -21722,11 +21743,6 @@
   </sheetData>
   <autoFilter ref="B7:Q50"/>
   <mergeCells count="14">
-    <mergeCell ref="B37:B50"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="B8:B36"/>
@@ -21736,6 +21752,11 @@
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B37:B50"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
